--- a/02_MasterWifoMannheim/99_Backup/Course96.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course96.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_2B59D2BFD32051265F592811595B18B65A97F9C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8EB2F9-883D-46FF-A7DE-233CBCF21BFC}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3005A715B7A3B115927B0F34495F89D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F70A1830-16D5-4D91-83FE-0CACB20E90C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23580" yWindow="885" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,12 @@
     <t>Prerequisites</t>
   </si>
   <si>
+    <t>IS 615, Information Systems (IS)</t>
+  </si>
+  <si>
+    <t>IS 615</t>
+  </si>
+  <si>
     <t>Obligatory registration: yes, limited to 32 participants.</t>
   </si>
   <si>
@@ -82,7 +88,7 @@
     <t>Offering</t>
   </si>
   <si>
-    <t>Fall semester</t>
+    <t>FWS</t>
   </si>
   <si>
     <t>Language</t>
@@ -106,13 +112,7 @@
     <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
   </si>
   <si>
-    <t>IS 615</t>
-  </si>
-  <si>
-    <t>Benötigte Kenntnisse</t>
-  </si>
-  <si>
-    <t>IS 615, Information Systems (IS)</t>
+    <t>Benötigte Kurse</t>
   </si>
 </sst>
 </file>
@@ -169,13 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,14 +479,10 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.140625" customWidth="1"/>
-    <col min="2" max="2" width="220.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -503,23 +496,23 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -527,106 +520,103 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
